--- a/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200214.xlsx
+++ b/data/unchecked/manual_collect/china/gansu/gansuCaseStatistics_20200214.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F843FCBD-5850-413E-B244-495E2625130B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AC202-C8A1-413B-B26C-C75885C24649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1956" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10338,7 +10338,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -10547,7 +10547,7 @@
     <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10835,8 +10835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11658,6 +11658,9 @@
       </c>
       <c r="G16" s="20" t="s">
         <v>3287</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5</v>
       </c>
       <c r="M16" s="22"/>
       <c r="O16" s="20"/>
